--- a/RichLand_ver2021-2/Assets/13_Excel/Card/DestinyCard.xlsx
+++ b/RichLand_ver2021-2/Assets/13_Excel/Card/DestinyCard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jiang_Programmer\03RichLand\RichLand_ver2021-2\Assets\13_Excel\Card\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jiang_Programmer\03RichLand\UnityProject_RichLand\RichLand_ver2021-2\Assets\13_Excel\Card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E96F30-7AF8-4E96-8645-B07F611BCE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3439971-FEF0-4A62-B818-0F79C1FE5CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="2130" windowWidth="21555" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="2475" windowWidth="21555" windowHeight="13710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -667,6 +667,10 @@
   </si>
   <si>
     <t>拋售折價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -803,6 +807,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1032,7 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -1656,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B07BE18-016F-4D35-90B3-071F811C4C03}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1799,6 +1806,17 @@
       </c>
       <c r="C12" s="8">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>54</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="14">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/RichLand_ver2021-2/Assets/13_Excel/Card/DestinyCard.xlsx
+++ b/RichLand_ver2021-2/Assets/13_Excel/Card/DestinyCard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jiang_Programmer\03RichLand\UnityProject_RichLand\RichLand_ver2021-2\Assets\13_Excel\Card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3439971-FEF0-4A62-B818-0F79C1FE5CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76187C48-AA67-44C4-BB8F-E269180C6691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="2475" windowWidth="21555" windowHeight="13710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="2475" windowWidth="21555" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -224,11 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>選擇雙方一人傳送到度假中心，
-下回合執行其效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -629,48 +624,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urban</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地過路費加乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拋售折價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>選擇雙方一人傳送到機會命運卡之外的
 任意區域，並立即執行該區效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Urban</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地過路費加乘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拋售折價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>結束回合</t>
+  </si>
+  <si>
+    <t>將對方傳送到度假中心，
+下回合執行其效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,8 +1031,8 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1056,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -1100,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -1129,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -1158,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -1187,7 +1186,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -1245,7 +1244,7 @@
         <v>32</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -1274,7 +1273,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -1303,7 +1302,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -1332,7 +1331,7 @@
         <v>22</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -1361,7 +1360,7 @@
         <v>23</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -1448,7 +1447,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -1593,7 +1592,7 @@
         <v>31</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -1619,7 +1618,7 @@
         <v>535</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>34</v>
@@ -1651,7 +1650,7 @@
         <v>33</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B07BE18-016F-4D35-90B3-071F811C4C03}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1681,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1692,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8">
         <v>1200000</v>
@@ -1703,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -1714,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="8">
         <v>1.5</v>
@@ -1725,7 +1724,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="8">
         <v>1.5</v>
@@ -1736,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
@@ -1747,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="8">
         <v>1.2</v>
@@ -1758,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="8">
         <v>0.5</v>
@@ -1769,7 +1768,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="8">
         <v>10000</v>
@@ -1780,7 +1779,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="8">
         <v>20000</v>
@@ -1791,7 +1790,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="8">
         <v>30000</v>
@@ -1802,7 +1801,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="8">
         <v>6000</v>
@@ -1813,7 +1812,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="14">
         <v>100</v>
@@ -1842,25 +1841,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">

--- a/RichLand_ver2021-2/Assets/13_Excel/Card/DestinyCard.xlsx
+++ b/RichLand_ver2021-2/Assets/13_Excel/Card/DestinyCard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jiang_Programmer\03RichLand\UnityProject_RichLand\RichLand_ver2021-2\Assets\13_Excel\Card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76187C48-AA67-44C4-BB8F-E269180C6691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B63BDE-FA7E-4265-BA60-D1F3C519C175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="2475" windowWidth="21555" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="2475" windowWidth="21555" windowHeight="13710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B07BE18-016F-4D35-90B3-071F811C4C03}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1803,8 +1803,8 @@
       <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="8">
-        <v>6000</v>
+      <c r="C12" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">

--- a/RichLand_ver2021-2/Assets/13_Excel/Card/DestinyCard.xlsx
+++ b/RichLand_ver2021-2/Assets/13_Excel/Card/DestinyCard.xlsx
@@ -8,16 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jiang_Programmer\03RichLand\UnityProject_RichLand\RichLand_ver2021-2\Assets\13_Excel\Card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B63BDE-FA7E-4265-BA60-D1F3C519C175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CAE828-4004-4325-91A0-406CC45DD7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="2475" windowWidth="21555" windowHeight="13710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20535" yWindow="1155" windowWidth="19230" windowHeight="13710" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardData" sheetId="1" r:id="rId1"/>
     <sheet name="GameValue" sheetId="2" r:id="rId2"/>
     <sheet name="Land" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1664,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B07BE18-016F-4D35-90B3-071F811C4C03}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1705,7 +1715,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="8">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -1829,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09145CA9-6334-4E25-927E-52F2CA9503A7}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
